--- a/Datos/Database by set/Set with text box/Xlsx sets/Urza's Legacy Promos (PULG).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Urza's Legacy Promos (PULG).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,70 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beast of Burden</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Beast of Burden’s power and toughness are each equal to the number of creatures on the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Beast of Burden</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Beast of Burden’s power and toughness are each equal to the number of creatures on the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>*/*</t>
+          <t>('Beast of Burden', ['{6}', 'Artifact Creature — Golem', 'Beast of Burden’s power and toughness are each equal to the number of creatures on the battlefield.', '*/*'])</t>
         </is>
       </c>
     </row>
